--- a/Logo + Project Info/AACI_Sp20.xlsx
+++ b/Logo + Project Info/AACI_Sp20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vbalaji/Desktop/AACI_Sp20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109EC04F-CC5F-4440-B715-DF498A89FF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E936F6E3-F7F2-1046-B930-FB20E9591E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Semester</t>
   </si>
@@ -90,6 +90,9 @@
   <si>
     <t>Vaishnav Balaji</t>
   </si>
+  <si>
+    <t>aaci_report_s20.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -163,6 +166,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -384,8 +388,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -394,9 +398,10 @@
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="66" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,6 +467,9 @@
       <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3466,6 +3474,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{67CCF109-04F2-DC4B-9D0F-EDE03090F71D}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{36715931-74A2-6B46-A1CF-F2D2914912C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
